--- a/Web Test Case.xlsx
+++ b/Web Test Case.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="11475" windowHeight="6990" firstSheet="8" activeTab="13"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="11475" windowHeight="6990" firstSheet="8" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="331">
   <si>
     <t>No</t>
   </si>
@@ -1267,6 +1267,9 @@
   </si>
   <si>
     <t xml:space="preserve">Successfully logged out </t>
+  </si>
+  <si>
+    <t>User want to see all notification</t>
   </si>
 </sst>
 </file>
@@ -2756,10 +2759,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:H10"/>
+  <dimension ref="A3:H11"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2821,45 +2824,35 @@
         <v>174</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6" t="s">
-        <v>303</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="23"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="29" t="s">
+        <v>330</v>
+      </c>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+    </row>
+    <row r="6" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="H6" s="6" t="s">
         <v>175</v>
@@ -2869,92 +2862,115 @@
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="H9" s="6" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="H10" s="6" t="s">
         <v>196</v>
       </c>
     </row>
+    <row r="11" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>196</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2962,7 +2978,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="D4" sqref="D4:H4"/>
     </sheetView>
   </sheetViews>

--- a/Web Test Case.xlsx
+++ b/Web Test Case.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="11475" windowHeight="6990" firstSheet="8" activeTab="12"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="11475" windowHeight="6990" firstSheet="10" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="316">
   <si>
     <t>No</t>
   </si>
@@ -277,9 +277,6 @@
     <t>Homepage button</t>
   </si>
   <si>
-    <t>User click homepage button</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -324,9 +321,6 @@
     <t>User redirected to  related page with  thumbnail content</t>
   </si>
   <si>
-    <t>User directed to  next thumbnail</t>
-  </si>
-  <si>
     <t xml:space="preserve">Thumbnail banner </t>
   </si>
   <si>
@@ -369,16 +363,10 @@
     <t>User want go to previous page</t>
   </si>
   <si>
-    <t>At the bottom of the homepage</t>
-  </si>
-  <si>
     <t>1. Click next hyperlink</t>
   </si>
   <si>
     <t>1. Click previous hyperlink</t>
-  </si>
-  <si>
-    <t>Rediredted to next homepage of product list</t>
   </si>
   <si>
     <t>Rediredted to previous page of product list</t>
@@ -442,9 +430,6 @@
     <t>1. Click sell
 2. Input form ( product name, product price, choose category, didn't add product picture)
 3. Click publish</t>
-  </si>
-  <si>
-    <t>Showing form validation message ' picture must exist'</t>
   </si>
   <si>
     <t>1. Already on homepage.
@@ -544,19 +529,6 @@
 5. Click save button</t>
   </si>
   <si>
-    <t>User want to complete account info with invalid phone number</t>
-  </si>
-  <si>
-    <t>1. Click profile icon
-2. Click profile picture
-3. Add profile picture
-4. Fill in form ( name,  choose city, address, invalid phone number)
-5. Click save button</t>
-  </si>
-  <si>
-    <t>Failed to save and showing form validation message ' invalid phone number '</t>
-  </si>
-  <si>
     <t>User want to enter a bid price with an invalid value</t>
   </si>
   <si>
@@ -593,16 +565,6 @@
 </t>
   </si>
   <si>
-    <t>1. Click my selling list icon</t>
-  </si>
-  <si>
-    <t>Rediredted to my selling list page and showing profile and category (all product, interested, sold)</t>
-  </si>
-  <si>
-    <t>1. Already on homepage
-2. has published the product</t>
-  </si>
-  <si>
     <t>User want to edit account info</t>
   </si>
   <si>
@@ -620,10 +582,6 @@
   <si>
     <t>1. Have logged in and already on homepage
 2. Leave phone number blank</t>
-  </si>
-  <si>
-    <t>1. Have logged in and already on homepage
-2. Invalid phone number : 02123456778</t>
   </si>
   <si>
     <t>1. Click edit 
@@ -697,9 +655,6 @@
     <t>Redirected to preview product page and showing product preview</t>
   </si>
   <si>
-    <t>User want to  publish product after see preview product</t>
-  </si>
-  <si>
     <t>1. Already on selling list page.
 2. Edit product name nanas&gt;nanas segar</t>
   </si>
@@ -757,9 +712,6 @@
 2. Already fill in product detail form</t>
   </si>
   <si>
-    <t>User want to  delete product after see preview product</t>
-  </si>
-  <si>
     <t>1. Click delete
 2. Click yes</t>
   </si>
@@ -874,10 +826,6 @@
   </si>
   <si>
     <t>1. User has opened the search engine
-2. Email has not been registered</t>
-  </si>
-  <si>
-    <t>1. User has opened the search engine
 2. Leave name blank</t>
   </si>
   <si>
@@ -951,9 +899,6 @@
     <t>User want to search product using typo keyword</t>
   </si>
   <si>
-    <t>Doesn't show anything</t>
-  </si>
-  <si>
     <t>Showing product with related keyword in product list</t>
   </si>
   <si>
@@ -969,9 +914,6 @@
 2. Typo keyword : nanaf</t>
   </si>
   <si>
-    <t>On pages other than the homepage</t>
-  </si>
-  <si>
     <t>User redirected to the homepage</t>
   </si>
   <si>
@@ -1030,11 +972,6 @@
   </si>
   <si>
     <t>At the bottom of the homepage and and not on the first page of homepage</t>
-  </si>
-  <si>
-    <t>1. Click edit
-2. Edit part of form that want to edit (product name, product price, category, descripstion, photo)
-3. Click preview</t>
   </si>
   <si>
     <t xml:space="preserve">1. Already on preview page
@@ -1042,19 +979,6 @@
 </t>
   </si>
   <si>
-    <t>Successfully edit and rediredted to preview product</t>
-  </si>
-  <si>
-    <t>User want to  edit product after that publish product</t>
-  </si>
-  <si>
-    <t>User want to  edit product after that preview product</t>
-  </si>
-  <si>
-    <t>1. Already on preview page
-2. Edit product price 40&gt;50</t>
-  </si>
-  <si>
     <t xml:space="preserve">Already on preview page
 </t>
   </si>
@@ -1062,9 +986,6 @@
     <t>Preview product</t>
   </si>
   <si>
-    <t>User want go to my selling list page</t>
-  </si>
-  <si>
     <t>TC_Mypro_001</t>
   </si>
   <si>
@@ -1086,9 +1007,6 @@
     <t>TC_Mypro_007</t>
   </si>
   <si>
-    <t>TC_Mypro_008</t>
-  </si>
-  <si>
     <t>TC_Homp_001</t>
   </si>
   <si>
@@ -1149,9 +1067,6 @@
     <t>TC_Pre_002</t>
   </si>
   <si>
-    <t>TC_Pre_003</t>
-  </si>
-  <si>
     <t>TC_Pre_004</t>
   </si>
   <si>
@@ -1174,9 +1089,6 @@
   </si>
   <si>
     <t>TC_Mysell_007</t>
-  </si>
-  <si>
-    <t>TC_Mysell_008</t>
   </si>
   <si>
     <t>TC_Notif_001</t>
@@ -1269,14 +1181,48 @@
     <t xml:space="preserve">Successfully logged out </t>
   </si>
   <si>
-    <t>User want to see all notification</t>
+    <t>1. User has opened the search engine
+2. Email hasn't been registered</t>
+  </si>
+  <si>
+    <t>Showing message 'No results found for "xctehkj" '</t>
+  </si>
+  <si>
+    <t>Showing message 'No results found for "nanaf" '</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User want to go to homepage </t>
+  </si>
+  <si>
+    <t>On pages other than  homepage</t>
+  </si>
+  <si>
+    <t>User redirected to  next thumbnail</t>
+  </si>
+  <si>
+    <t>Rediredted to next page of product list</t>
+  </si>
+  <si>
+    <t>At the bottom of the homepage and on first page</t>
+  </si>
+  <si>
+    <t>Showing message ' picture must exist'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User want to  publish product </t>
+  </si>
+  <si>
+    <t xml:space="preserve">User want to  edit product </t>
+  </si>
+  <si>
+    <t xml:space="preserve">User want to  delete product </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1338,18 +1284,6 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1399,7 +1333,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1480,16 +1414,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1796,7 +1721,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Y11"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
@@ -1876,10 +1801,10 @@
         <v>10</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>309</v>
+        <v>283</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="2"/>
@@ -1915,10 +1840,10 @@
         <v>13</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>310</v>
+        <v>284</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>314</v>
+        <v>288</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="2"/>
@@ -1954,10 +1879,10 @@
         <v>15</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>310</v>
+        <v>284</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="2"/>
@@ -1993,10 +1918,10 @@
         <v>17</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>310</v>
+        <v>284</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="I7" s="3"/>
       <c r="J7" s="2"/>
@@ -2032,10 +1957,10 @@
         <v>30</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>311</v>
+        <v>285</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="2"/>
@@ -2071,10 +1996,10 @@
         <v>31</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>311</v>
+        <v>285</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="I9" s="3"/>
       <c r="J9" s="2"/>
@@ -2104,16 +2029,16 @@
         <v>11</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>312</v>
+        <v>286</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="2"/>
@@ -2146,13 +2071,13 @@
         <v>18</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>313</v>
+        <v>287</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="2"/>
@@ -2191,8 +2116,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:H10"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2234,157 +2159,157 @@
         <v>10</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>283</v>
+        <v>259</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6" t="s">
-        <v>284</v>
+        <v>260</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6" t="s">
-        <v>285</v>
+        <v>261</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6" t="s">
-        <v>286</v>
+        <v>262</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6" t="s">
-        <v>287</v>
+        <v>263</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>322</v>
+        <v>296</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>323</v>
+        <v>297</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6" t="s">
-        <v>288</v>
+        <v>264</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F9" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="G9" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="G9" s="10" t="s">
-        <v>96</v>
-      </c>
       <c r="H9" s="6" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A10" s="20"/>
       <c r="B10" s="20"/>
       <c r="C10" s="6" t="s">
-        <v>289</v>
+        <v>265</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="G10" s="31" t="s">
-        <v>99</v>
+        <v>94</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>312</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -2394,10 +2319,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:H7"/>
+  <dimension ref="A3:H6"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView topLeftCell="B3" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2438,91 +2363,69 @@
         <v>11</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>262</v>
+        <v>240</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>290</v>
+        <v>266</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="G4" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="F4" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>177</v>
-      </c>
       <c r="H4" s="6" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6" t="s">
-        <v>291</v>
+        <v>267</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>258</v>
+        <v>314</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6" t="s">
-        <v>292</v>
+        <v>268</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>259</v>
+        <v>315</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>257</v>
+        <v>168</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>154</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="105" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6" t="s">
-        <v>293</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="F7" s="29" t="s">
-        <v>182</v>
-      </c>
-      <c r="G7" s="29" t="s">
-        <v>167</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
     </row>
   </sheetData>
@@ -2534,8 +2437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:H11"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView topLeftCell="C9" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2577,180 +2480,162 @@
         <v>12</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>294</v>
+        <v>269</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>263</v>
+        <v>102</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>137</v>
+        <v>209</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6" t="s">
-        <v>295</v>
+        <v>270</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>224</v>
+        <v>135</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="16"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6" t="s">
-        <v>296</v>
+        <v>271</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="16"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6" t="s">
-        <v>297</v>
+        <v>272</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="150" x14ac:dyDescent="0.25">
       <c r="A8" s="16"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6" t="s">
-        <v>298</v>
+        <v>273</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>153</v>
+        <v>145</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>143</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="180" x14ac:dyDescent="0.25">
       <c r="A9" s="16"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6" t="s">
-        <v>299</v>
+        <v>274</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>111</v>
+        <v>149</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>155</v>
+        <v>148</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>150</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="180" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A10" s="16"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6" t="s">
-        <v>300</v>
+        <v>275</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>161</v>
+        <v>107</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="16"/>
       <c r="B11" s="6"/>
-      <c r="C11" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>168</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2759,10 +2644,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:H11"/>
+  <dimension ref="A3:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2803,44 +2688,54 @@
         <v>13</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>302</v>
+        <v>276</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="F4" s="6" t="s">
-        <v>184</v>
-      </c>
       <c r="G4" s="6" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="23"/>
-      <c r="B5" s="23"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="29" t="s">
-        <v>330</v>
-      </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-    </row>
-    <row r="6" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6" t="s">
-        <v>303</v>
+        <v>278</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>8</v>
@@ -2849,123 +2744,101 @@
         <v>171</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6" t="s">
-        <v>304</v>
+        <v>279</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6" t="s">
-        <v>305</v>
+        <v>280</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6" t="s">
-        <v>306</v>
+        <v>281</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6" t="s">
-        <v>307</v>
+        <v>282</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6" t="s">
-        <v>308</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -2978,8 +2851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:H4"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:H4"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3019,25 +2892,25 @@
     <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
       <c r="B4" s="6" t="s">
-        <v>324</v>
+        <v>298</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>325</v>
+        <v>299</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>326</v>
+        <v>300</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>327</v>
+        <v>301</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>329</v>
+        <v>303</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>328</v>
+        <v>302</v>
       </c>
     </row>
   </sheetData>
@@ -3050,8 +2923,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:H12"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView topLeftCell="C8" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3111,7 +2984,7 @@
         <v>21</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>210</v>
+        <v>304</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="137.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3127,13 +3000,13 @@
         <v>22</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3152,10 +3025,10 @@
         <v>34</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="180" x14ac:dyDescent="0.25">
@@ -3174,10 +3047,10 @@
         <v>32</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="165" x14ac:dyDescent="0.25">
@@ -3190,38 +3063,38 @@
         <v>25</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>33</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="165" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="23"/>
       <c r="C9" s="6" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>25</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -3270,10 +3143,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:H11"/>
+  <dimension ref="A3:H10"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="A4" sqref="A4:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3310,183 +3183,161 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="105" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+      <c r="A4" s="23">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>113</v>
+      <c r="B4" s="23" t="s">
+        <v>108</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>264</v>
+        <v>241</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="6" t="s">
-        <v>265</v>
+        <v>242</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="6" t="s">
-        <v>266</v>
+        <v>243</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="6" t="s">
-        <v>267</v>
+        <v>244</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E7" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="G7" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="F7" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>120</v>
-      </c>
       <c r="H7" s="6" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="6" t="s">
-        <v>268</v>
+        <v>245</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E8" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="G8" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="F8" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>121</v>
-      </c>
       <c r="H8" s="6" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="6" t="s">
-        <v>269</v>
+        <v>246</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E9" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F9" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="F9" s="6" t="s">
-        <v>123</v>
-      </c>
       <c r="G9" s="6" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="6" t="s">
-        <v>270</v>
+        <v>247</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="105" x14ac:dyDescent="0.25">
-      <c r="A11" s="28"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="6" t="s">
-        <v>271</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -3498,8 +3349,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:H6"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5:H6"/>
+    <sheetView topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3554,13 +3405,13 @@
         <v>50</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>230</v>
+        <v>214</v>
       </c>
       <c r="H4" s="19" t="s">
-        <v>231</v>
+        <v>215</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="75" x14ac:dyDescent="0.25">
@@ -3576,13 +3427,13 @@
         <v>51</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="G5" s="29" t="s">
-        <v>229</v>
+        <v>126</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>305</v>
       </c>
       <c r="H5" s="19" t="s">
-        <v>232</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="75" x14ac:dyDescent="0.25">
@@ -3595,16 +3446,16 @@
         <v>11</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="G6" s="29" t="s">
-        <v>229</v>
+        <v>127</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>306</v>
       </c>
       <c r="H6" s="19" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -3617,8 +3468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:H4"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3664,22 +3515,22 @@
         <v>55</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>272</v>
+        <v>248</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>56</v>
+        <v>307</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>234</v>
+        <v>308</v>
       </c>
     </row>
   </sheetData>
@@ -3691,8 +3542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:H5"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3735,47 +3586,47 @@
         <v>6</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>273</v>
+        <v>249</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F4" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="H4" s="6" t="s">
         <v>66</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6" t="s">
-        <v>274</v>
+        <v>250</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>64</v>
+        <v>309</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -3787,7 +3638,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:H9"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
@@ -3831,135 +3682,135 @@
         <v>7</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>275</v>
+        <v>251</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>320</v>
+        <v>294</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>236</v>
+        <v>219</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>243</v>
+        <v>226</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>321</v>
+        <v>295</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6" t="s">
-        <v>276</v>
+        <v>252</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>315</v>
+        <v>289</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>237</v>
+        <v>220</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>242</v>
+        <v>225</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>249</v>
+        <v>232</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6" t="s">
-        <v>277</v>
+        <v>253</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>316</v>
+        <v>290</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>244</v>
+        <v>227</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>250</v>
+        <v>233</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6" t="s">
-        <v>278</v>
+        <v>254</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>317</v>
+        <v>291</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>245</v>
+        <v>228</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6" t="s">
-        <v>279</v>
+        <v>255</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>318</v>
+        <v>292</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6" t="s">
-        <v>280</v>
+        <v>256</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>319</v>
+        <v>293</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>247</v>
+        <v>230</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>253</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>
@@ -3971,7 +3822,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:H6"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
@@ -4013,54 +3864,54 @@
         <v>8</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>248</v>
+        <v>231</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="F4" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>73</v>
-      </c>
       <c r="H4" s="6" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="27"/>
       <c r="B6" s="27"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4071,8 +3922,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:H5"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:C5"/>
+    <sheetView topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4114,47 +3965,47 @@
         <v>9</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>281</v>
+        <v>257</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="F4" s="6" t="s">
-        <v>79</v>
-      </c>
       <c r="G4" s="6" t="s">
-        <v>81</v>
+        <v>310</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>78</v>
+        <v>311</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6" t="s">
-        <v>282</v>
+        <v>258</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E5" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="F5" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="F5" s="6" t="s">
-        <v>80</v>
-      </c>
       <c r="G5" s="6" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>254</v>
+        <v>237</v>
       </c>
     </row>
   </sheetData>
